--- a/ASSIGNMENTS/MATLAB Challenge #3 Data.xlsx
+++ b/ASSIGNMENTS/MATLAB Challenge #3 Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\ENGE-1414\ASSIGNMENTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317A5DAD-10FF-4EFB-84D8-9532F46D99B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD44685-D27B-4792-9D96-EF93A464A2A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="5">
   <si>
     <t>Sifu</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>Game Name</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -402,7 +405,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,45 +430,72 @@
       <c r="A3">
         <v>0</v>
       </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0</v>
       </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0</v>
       </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -496,6 +526,9 @@
       <c r="A15">
         <v>0</v>
       </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -509,15 +542,24 @@
       <c r="A17">
         <v>0</v>
       </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0</v>
       </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
